--- a/static/hojas_vida/CALIDAD_7VC6BM1.xlsx
+++ b/static/hojas_vida/CALIDAD_7VC6BM1.xlsx
@@ -2462,9 +2462,17 @@
       </c>
     </row>
     <row r="34" ht="162.75" customHeight="1" s="45" thickBot="1">
-      <c r="A34" s="177" t="n"/>
+      <c r="A34" s="177" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
       <c r="B34" s="141" t="n"/>
-      <c r="C34" s="178" t="n"/>
+      <c r="C34" s="178" t="inlineStr">
+        <is>
+          <t>prueb final</t>
+        </is>
+      </c>
       <c r="D34" s="140" t="n"/>
       <c r="E34" s="140" t="n"/>
       <c r="F34" s="140" t="n"/>
@@ -2474,7 +2482,11 @@
       <c r="J34" s="140" t="n"/>
       <c r="K34" s="140" t="n"/>
       <c r="L34" s="141" t="n"/>
-      <c r="M34" s="28" t="n"/>
+      <c r="M34" s="28" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="162.75" customHeight="1" s="45">
       <c r="A35" s="177" t="n"/>
